--- a/data-raw/igue.sugarcane.xlsx
+++ b/data-raw/igue.sugarcane.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\x\rpack\agridat\data-done\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drop\rpack\agridat\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE6D09F-C358-4391-A076-08B1BFE02FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="0" windowWidth="14340" windowHeight="9000"/>
+    <workbookView xWindow="41475" yWindow="3465" windowWidth="11385" windowHeight="12195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,12 +19,8 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0."/>
   </numFmts>
@@ -80,7 +77,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -92,9 +89,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -118,9 +112,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -158,7 +152,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -264,7 +258,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -406,34 +400,34 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="AC30" sqref="AC30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="22" width="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.21875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3.1796875" bestFit="1" customWidth="1"/>
     <col min="24" max="28" width="3" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="3.54296875" bestFit="1" customWidth="1"/>
     <col min="30" max="32" width="3" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="3.54296875" bestFit="1" customWidth="1"/>
     <col min="34" max="36" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" ht="15" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
         <v>40</v>
       </c>
@@ -488,62 +482,62 @@
       <c r="R1" s="1">
         <v>52</v>
       </c>
-      <c r="S1" s="5">
-        <v>48</v>
-      </c>
-      <c r="T1" s="5">
-        <v>51</v>
-      </c>
-      <c r="U1" s="5">
+      <c r="S1" s="1">
+        <v>48</v>
+      </c>
+      <c r="T1" s="1">
+        <v>51</v>
+      </c>
+      <c r="U1" s="1">
         <v>54</v>
       </c>
-      <c r="V1" s="5">
-        <v>50</v>
-      </c>
-      <c r="W1" s="5">
-        <v>46</v>
-      </c>
-      <c r="X1" s="5">
-        <v>40</v>
-      </c>
-      <c r="Y1" s="5">
-        <v>40</v>
-      </c>
-      <c r="Z1" s="5">
+      <c r="V1" s="1">
+        <v>50</v>
+      </c>
+      <c r="W1" s="1">
+        <v>46</v>
+      </c>
+      <c r="X1" s="1">
+        <v>40</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>40</v>
+      </c>
+      <c r="Z1" s="1">
         <v>38</v>
       </c>
-      <c r="AA1" s="5">
-        <v>43</v>
-      </c>
-      <c r="AB1" s="5">
-        <v>41</v>
-      </c>
-      <c r="AC1" s="5">
-        <v>50</v>
-      </c>
-      <c r="AD1" s="5">
-        <v>40</v>
-      </c>
-      <c r="AE1" s="5">
-        <v>48</v>
-      </c>
-      <c r="AF1" s="5">
+      <c r="AA1" s="1">
+        <v>43</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>41</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>50</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>40</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>48</v>
+      </c>
+      <c r="AF1" s="1">
         <v>38</v>
       </c>
-      <c r="AG1" s="5">
-        <v>40</v>
-      </c>
-      <c r="AH1" s="5">
-        <v>45</v>
-      </c>
-      <c r="AI1" s="5">
-        <v>42</v>
-      </c>
-      <c r="AJ1" s="5">
+      <c r="AG1" s="1">
+        <v>40</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>45</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>42</v>
+      </c>
+      <c r="AJ1" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>40</v>
       </c>
@@ -598,62 +592,62 @@
       <c r="R2" s="1">
         <v>22</v>
       </c>
-      <c r="S2" s="5">
-        <v>46</v>
-      </c>
-      <c r="T2" s="5">
-        <v>47</v>
-      </c>
-      <c r="U2" s="5">
+      <c r="S2" s="1">
+        <v>46</v>
+      </c>
+      <c r="T2" s="1">
+        <v>47</v>
+      </c>
+      <c r="U2" s="1">
         <v>32</v>
       </c>
-      <c r="V2" s="5">
-        <v>42</v>
-      </c>
-      <c r="W2" s="5">
-        <v>40</v>
-      </c>
-      <c r="X2" s="5">
+      <c r="V2" s="1">
+        <v>42</v>
+      </c>
+      <c r="W2" s="1">
+        <v>40</v>
+      </c>
+      <c r="X2" s="1">
         <v>38</v>
       </c>
-      <c r="Y2" s="5">
+      <c r="Y2" s="1">
         <v>38</v>
       </c>
-      <c r="Z2" s="5">
-        <v>41</v>
-      </c>
-      <c r="AA2" s="5">
+      <c r="Z2" s="1">
+        <v>41</v>
+      </c>
+      <c r="AA2" s="1">
         <v>36</v>
       </c>
-      <c r="AB2" s="5">
+      <c r="AB2" s="1">
         <v>38</v>
       </c>
-      <c r="AC2" s="5">
-        <v>48</v>
-      </c>
-      <c r="AD2" s="5">
+      <c r="AC2" s="1">
+        <v>48</v>
+      </c>
+      <c r="AD2" s="1">
         <v>39</v>
       </c>
-      <c r="AE2" s="5">
-        <v>45</v>
-      </c>
-      <c r="AF2" s="5">
-        <v>45</v>
-      </c>
-      <c r="AG2" s="5">
-        <v>41</v>
-      </c>
-      <c r="AH2" s="5">
-        <v>41</v>
-      </c>
-      <c r="AI2" s="5">
-        <v>41</v>
-      </c>
-      <c r="AJ2" s="5">
+      <c r="AE2" s="1">
+        <v>45</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>45</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>41</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>41</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>41</v>
+      </c>
+      <c r="AJ2" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" ht="15" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>36</v>
       </c>
@@ -708,62 +702,62 @@
       <c r="R3" s="1">
         <v>43</v>
       </c>
-      <c r="S3" s="5">
+      <c r="S3" s="1">
         <v>38</v>
       </c>
-      <c r="T3" s="5">
+      <c r="T3" s="1">
         <v>44</v>
       </c>
-      <c r="U3" s="5">
+      <c r="U3" s="1">
         <v>36</v>
       </c>
-      <c r="V3" s="5">
+      <c r="V3" s="1">
         <v>57</v>
       </c>
-      <c r="W3" s="5">
-        <v>41</v>
-      </c>
-      <c r="X3" s="5">
+      <c r="W3" s="1">
+        <v>41</v>
+      </c>
+      <c r="X3" s="1">
         <v>49</v>
       </c>
-      <c r="Y3" s="5">
+      <c r="Y3" s="1">
         <v>49</v>
       </c>
-      <c r="Z3" s="5">
-        <v>45</v>
-      </c>
-      <c r="AA3" s="5">
-        <v>40</v>
-      </c>
-      <c r="AB3" s="5">
-        <v>45</v>
-      </c>
-      <c r="AC3" s="5">
-        <v>50</v>
-      </c>
-      <c r="AD3" s="5">
-        <v>42</v>
-      </c>
-      <c r="AE3" s="5">
-        <v>50</v>
-      </c>
-      <c r="AF3" s="5">
-        <v>42</v>
-      </c>
-      <c r="AG3" s="5">
-        <v>48</v>
-      </c>
-      <c r="AH3" s="5">
+      <c r="Z3" s="1">
+        <v>45</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>40</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>45</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>50</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>42</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>50</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>42</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>48</v>
+      </c>
+      <c r="AH3" s="1">
         <v>37</v>
       </c>
-      <c r="AI3" s="5">
-        <v>40</v>
-      </c>
-      <c r="AJ3" s="5">
+      <c r="AI3" s="1">
+        <v>40</v>
+      </c>
+      <c r="AJ3" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" ht="15" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>41</v>
       </c>
@@ -818,62 +812,62 @@
       <c r="R4" s="1">
         <v>44</v>
       </c>
-      <c r="S4" s="5">
+      <c r="S4" s="1">
         <v>30</v>
       </c>
-      <c r="T4" s="5">
-        <v>43</v>
-      </c>
-      <c r="U4" s="5">
-        <v>50</v>
-      </c>
-      <c r="V4" s="5">
-        <v>55</v>
-      </c>
-      <c r="W4" s="5">
-        <v>42</v>
-      </c>
-      <c r="X4" s="5">
-        <v>50</v>
-      </c>
-      <c r="Y4" s="5">
-        <v>47</v>
-      </c>
-      <c r="Z4" s="5">
-        <v>50</v>
-      </c>
-      <c r="AA4" s="5">
-        <v>43</v>
-      </c>
-      <c r="AB4" s="5">
-        <v>42</v>
-      </c>
-      <c r="AC4" s="5">
+      <c r="T4" s="1">
+        <v>43</v>
+      </c>
+      <c r="U4" s="1">
+        <v>50</v>
+      </c>
+      <c r="V4" s="1">
+        <v>55</v>
+      </c>
+      <c r="W4" s="1">
+        <v>42</v>
+      </c>
+      <c r="X4" s="1">
+        <v>50</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>47</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>50</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>43</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>42</v>
+      </c>
+      <c r="AC4" s="1">
         <v>37</v>
       </c>
-      <c r="AD4" s="5">
-        <v>48</v>
-      </c>
-      <c r="AE4" s="5">
+      <c r="AD4" s="1">
+        <v>48</v>
+      </c>
+      <c r="AE4" s="1">
         <v>38</v>
       </c>
-      <c r="AF4" s="5">
-        <v>40</v>
-      </c>
-      <c r="AG4" s="5">
-        <v>41</v>
-      </c>
-      <c r="AH4" s="5">
+      <c r="AF4" s="1">
+        <v>40</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>41</v>
+      </c>
+      <c r="AH4" s="1">
         <v>38</v>
       </c>
-      <c r="AI4" s="5">
+      <c r="AI4" s="1">
         <v>38</v>
       </c>
-      <c r="AJ4" s="5">
+      <c r="AJ4" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" ht="15" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>40</v>
       </c>
@@ -928,62 +922,62 @@
       <c r="R5" s="1">
         <v>51</v>
       </c>
-      <c r="S5" s="5">
-        <v>48</v>
-      </c>
-      <c r="T5" s="5">
-        <v>40</v>
-      </c>
-      <c r="U5" s="5">
+      <c r="S5" s="1">
+        <v>48</v>
+      </c>
+      <c r="T5" s="1">
+        <v>40</v>
+      </c>
+      <c r="U5" s="1">
         <v>25</v>
       </c>
-      <c r="V5" s="5">
-        <v>40</v>
-      </c>
-      <c r="W5" s="5">
+      <c r="V5" s="1">
+        <v>40</v>
+      </c>
+      <c r="W5" s="1">
         <v>44</v>
       </c>
-      <c r="X5" s="5">
+      <c r="X5" s="1">
         <v>39</v>
       </c>
-      <c r="Y5" s="5">
-        <v>45</v>
-      </c>
-      <c r="Z5" s="5">
-        <v>42</v>
-      </c>
-      <c r="AA5" s="5">
-        <v>42</v>
-      </c>
-      <c r="AB5" s="5">
+      <c r="Y5" s="1">
+        <v>45</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>42</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>42</v>
+      </c>
+      <c r="AB5" s="1">
         <v>31</v>
       </c>
-      <c r="AC5" s="5">
+      <c r="AC5" s="1">
         <v>35</v>
       </c>
-      <c r="AD5" s="5">
-        <v>45</v>
-      </c>
-      <c r="AE5" s="5">
+      <c r="AD5" s="1">
+        <v>45</v>
+      </c>
+      <c r="AE5" s="1">
         <v>37</v>
       </c>
-      <c r="AF5" s="5">
+      <c r="AF5" s="1">
         <v>29</v>
       </c>
-      <c r="AG5" s="5">
-        <v>40</v>
-      </c>
-      <c r="AH5" s="5">
-        <v>47</v>
-      </c>
-      <c r="AI5" s="5">
-        <v>40</v>
-      </c>
-      <c r="AJ5" s="5">
+      <c r="AG5" s="1">
+        <v>40</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>47</v>
+      </c>
+      <c r="AI5" s="1">
+        <v>40</v>
+      </c>
+      <c r="AJ5" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" ht="15" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>40</v>
       </c>
@@ -1038,62 +1032,62 @@
       <c r="R6" s="1">
         <v>48</v>
       </c>
-      <c r="S6" s="5">
-        <v>51</v>
-      </c>
-      <c r="T6" s="5">
-        <v>52</v>
-      </c>
-      <c r="U6" s="5">
+      <c r="S6" s="1">
+        <v>51</v>
+      </c>
+      <c r="T6" s="1">
+        <v>52</v>
+      </c>
+      <c r="U6" s="1">
         <v>49</v>
       </c>
-      <c r="V6" s="5">
-        <v>50</v>
-      </c>
-      <c r="W6" s="6">
-        <v>50</v>
-      </c>
-      <c r="X6" s="5">
+      <c r="V6" s="1">
+        <v>50</v>
+      </c>
+      <c r="W6" s="5">
+        <v>50</v>
+      </c>
+      <c r="X6" s="1">
         <v>49</v>
       </c>
-      <c r="Y6" s="5">
-        <v>43</v>
-      </c>
-      <c r="Z6" s="5">
+      <c r="Y6" s="1">
+        <v>43</v>
+      </c>
+      <c r="Z6" s="1">
         <v>49</v>
       </c>
-      <c r="AA6" s="5">
-        <v>51</v>
-      </c>
-      <c r="AB6" s="5">
-        <v>50</v>
-      </c>
-      <c r="AC6" s="5">
-        <v>51</v>
-      </c>
-      <c r="AD6" s="5">
+      <c r="AA6" s="1">
+        <v>51</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>50</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>51</v>
+      </c>
+      <c r="AD6" s="1">
         <v>37</v>
       </c>
-      <c r="AE6" s="5">
-        <v>48</v>
-      </c>
-      <c r="AF6" s="5">
+      <c r="AE6" s="1">
+        <v>48</v>
+      </c>
+      <c r="AF6" s="1">
         <v>39</v>
       </c>
-      <c r="AG6" s="5">
-        <v>41</v>
-      </c>
-      <c r="AH6" s="5">
-        <v>42</v>
-      </c>
-      <c r="AI6" s="5">
+      <c r="AG6" s="1">
+        <v>41</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>42</v>
+      </c>
+      <c r="AI6" s="1">
         <v>38</v>
       </c>
-      <c r="AJ6" s="5">
+      <c r="AJ6" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" ht="15" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>43</v>
       </c>
@@ -1148,62 +1142,62 @@
       <c r="R7" s="1">
         <v>39</v>
       </c>
-      <c r="S7" s="5">
-        <v>46</v>
-      </c>
-      <c r="T7" s="5">
+      <c r="S7" s="1">
+        <v>46</v>
+      </c>
+      <c r="T7" s="1">
         <v>54</v>
       </c>
-      <c r="U7" s="5">
+      <c r="U7" s="1">
         <v>57</v>
       </c>
-      <c r="V7" s="5">
+      <c r="V7" s="1">
         <v>39</v>
       </c>
-      <c r="W7" s="5">
-        <v>48</v>
-      </c>
-      <c r="X7" s="5">
-        <v>43</v>
-      </c>
-      <c r="Y7" s="5">
-        <v>42</v>
-      </c>
-      <c r="Z7" s="5">
-        <v>51</v>
-      </c>
-      <c r="AA7" s="5">
-        <v>48</v>
-      </c>
-      <c r="AB7" s="5">
-        <v>51</v>
-      </c>
-      <c r="AC7" s="5">
-        <v>55</v>
-      </c>
-      <c r="AD7" s="5">
-        <v>40</v>
-      </c>
-      <c r="AE7" s="5">
+      <c r="W7" s="1">
+        <v>48</v>
+      </c>
+      <c r="X7" s="1">
+        <v>43</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>42</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>51</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>48</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>51</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>55</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>40</v>
+      </c>
+      <c r="AE7" s="1">
         <v>39</v>
       </c>
-      <c r="AF7" s="5">
+      <c r="AF7" s="1">
         <v>49</v>
       </c>
-      <c r="AG7" s="5">
+      <c r="AG7" s="1">
         <v>35</v>
       </c>
-      <c r="AH7" s="5">
-        <v>48</v>
-      </c>
-      <c r="AI7" s="5">
+      <c r="AH7" s="1">
+        <v>48</v>
+      </c>
+      <c r="AI7" s="1">
         <v>49</v>
       </c>
-      <c r="AJ7" s="5">
+      <c r="AJ7" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:36" ht="15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" ht="15" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>40</v>
       </c>
@@ -1258,62 +1252,62 @@
       <c r="R8" s="1">
         <v>48</v>
       </c>
-      <c r="S8" s="5">
-        <v>47</v>
-      </c>
-      <c r="T8" s="5">
+      <c r="S8" s="1">
+        <v>47</v>
+      </c>
+      <c r="T8" s="1">
         <v>53</v>
       </c>
-      <c r="U8" s="5">
+      <c r="U8" s="1">
         <v>63</v>
       </c>
-      <c r="V8" s="5">
-        <v>42</v>
-      </c>
-      <c r="W8" s="5">
-        <v>41</v>
-      </c>
-      <c r="X8" s="5">
-        <v>50</v>
-      </c>
-      <c r="Y8" s="5">
+      <c r="V8" s="1">
+        <v>42</v>
+      </c>
+      <c r="W8" s="1">
+        <v>41</v>
+      </c>
+      <c r="X8" s="1">
+        <v>50</v>
+      </c>
+      <c r="Y8" s="1">
         <v>39</v>
       </c>
-      <c r="Z8" s="5">
-        <v>48</v>
-      </c>
-      <c r="AA8" s="5">
-        <v>40</v>
-      </c>
-      <c r="AB8" s="5">
-        <v>47</v>
-      </c>
-      <c r="AC8" s="5">
-        <v>51</v>
-      </c>
-      <c r="AD8" s="5">
-        <v>43</v>
-      </c>
-      <c r="AE8" s="5">
-        <v>47</v>
-      </c>
-      <c r="AF8" s="5">
-        <v>42</v>
-      </c>
-      <c r="AG8" s="5">
+      <c r="Z8" s="1">
+        <v>48</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>40</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>47</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>51</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>43</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>47</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>42</v>
+      </c>
+      <c r="AG8" s="1">
         <v>39</v>
       </c>
-      <c r="AH8" s="5">
-        <v>47</v>
-      </c>
-      <c r="AI8" s="5">
-        <v>50</v>
-      </c>
-      <c r="AJ8" s="5">
+      <c r="AH8" s="1">
+        <v>47</v>
+      </c>
+      <c r="AI8" s="1">
+        <v>50</v>
+      </c>
+      <c r="AJ8" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36" ht="15" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>37</v>
       </c>
@@ -1368,62 +1362,62 @@
       <c r="R9" s="1">
         <v>47</v>
       </c>
-      <c r="S9" s="5">
-        <v>51</v>
-      </c>
-      <c r="T9" s="5">
+      <c r="S9" s="1">
+        <v>51</v>
+      </c>
+      <c r="T9" s="1">
         <v>54</v>
       </c>
-      <c r="U9" s="5">
+      <c r="U9" s="1">
         <v>60</v>
       </c>
-      <c r="V9" s="5">
-        <v>46</v>
-      </c>
-      <c r="W9" s="5">
-        <v>46</v>
-      </c>
-      <c r="X9" s="5">
+      <c r="V9" s="1">
+        <v>46</v>
+      </c>
+      <c r="W9" s="1">
+        <v>46</v>
+      </c>
+      <c r="X9" s="1">
         <v>61</v>
       </c>
-      <c r="Y9" s="5">
+      <c r="Y9" s="1">
         <v>49</v>
       </c>
-      <c r="Z9" s="5">
-        <v>43</v>
-      </c>
-      <c r="AA9" s="5">
+      <c r="Z9" s="1">
+        <v>43</v>
+      </c>
+      <c r="AA9" s="1">
         <v>35</v>
       </c>
-      <c r="AB9" s="5">
+      <c r="AB9" s="1">
         <v>38</v>
       </c>
-      <c r="AC9" s="5">
+      <c r="AC9" s="1">
         <v>49</v>
       </c>
-      <c r="AD9" s="5">
-        <v>50</v>
-      </c>
-      <c r="AE9" s="5">
-        <v>45</v>
-      </c>
-      <c r="AF9" s="5">
-        <v>45</v>
-      </c>
-      <c r="AG9" s="5">
-        <v>46</v>
-      </c>
-      <c r="AH9" s="5">
-        <v>52</v>
-      </c>
-      <c r="AI9" s="5">
-        <v>45</v>
-      </c>
-      <c r="AJ9" s="5">
+      <c r="AD9" s="1">
+        <v>50</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>45</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>45</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>46</v>
+      </c>
+      <c r="AH9" s="1">
+        <v>52</v>
+      </c>
+      <c r="AI9" s="1">
+        <v>45</v>
+      </c>
+      <c r="AJ9" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:36" ht="15" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>41</v>
       </c>
@@ -1478,62 +1472,62 @@
       <c r="R10" s="1">
         <v>50</v>
       </c>
-      <c r="S10" s="5">
-        <v>52</v>
-      </c>
-      <c r="T10" s="5">
-        <v>50</v>
-      </c>
-      <c r="U10" s="5">
+      <c r="S10" s="1">
+        <v>52</v>
+      </c>
+      <c r="T10" s="1">
+        <v>50</v>
+      </c>
+      <c r="U10" s="1">
         <v>58</v>
       </c>
-      <c r="V10" s="5">
-        <v>47</v>
-      </c>
-      <c r="W10" s="5">
-        <v>48</v>
-      </c>
-      <c r="X10" s="5">
+      <c r="V10" s="1">
+        <v>47</v>
+      </c>
+      <c r="W10" s="1">
+        <v>48</v>
+      </c>
+      <c r="X10" s="1">
         <v>57</v>
       </c>
-      <c r="Y10" s="5">
-        <v>51</v>
-      </c>
-      <c r="Z10" s="5">
-        <v>48</v>
-      </c>
-      <c r="AA10" s="5">
+      <c r="Y10" s="1">
+        <v>51</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>48</v>
+      </c>
+      <c r="AA10" s="1">
         <v>34</v>
       </c>
-      <c r="AB10" s="5">
+      <c r="AB10" s="1">
         <v>49</v>
       </c>
-      <c r="AC10" s="5">
-        <v>52</v>
-      </c>
-      <c r="AD10" s="5">
-        <v>48</v>
-      </c>
-      <c r="AE10" s="5">
-        <v>43</v>
-      </c>
-      <c r="AF10" s="5">
-        <v>48</v>
-      </c>
-      <c r="AG10" s="5">
-        <v>47</v>
-      </c>
-      <c r="AH10" s="5">
-        <v>50</v>
-      </c>
-      <c r="AI10" s="5">
-        <v>48</v>
-      </c>
-      <c r="AJ10" s="5">
+      <c r="AC10" s="1">
+        <v>52</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>48</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>43</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>48</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>47</v>
+      </c>
+      <c r="AH10" s="1">
+        <v>50</v>
+      </c>
+      <c r="AI10" s="1">
+        <v>48</v>
+      </c>
+      <c r="AJ10" s="1">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:36" ht="15" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>44</v>
       </c>
@@ -1588,62 +1582,62 @@
       <c r="R11" s="1">
         <v>57</v>
       </c>
-      <c r="S11" s="5">
-        <v>55</v>
-      </c>
-      <c r="T11" s="5">
-        <v>43</v>
-      </c>
-      <c r="U11" s="5">
-        <v>40</v>
-      </c>
-      <c r="V11" s="5">
-        <v>47</v>
-      </c>
-      <c r="W11" s="5">
-        <v>51</v>
-      </c>
-      <c r="X11" s="5">
-        <v>50</v>
-      </c>
-      <c r="Y11" s="5">
-        <v>45</v>
-      </c>
-      <c r="Z11" s="5">
-        <v>50</v>
-      </c>
-      <c r="AA11" s="5">
-        <v>42</v>
-      </c>
-      <c r="AB11" s="5">
-        <v>42</v>
-      </c>
-      <c r="AC11" s="5">
-        <v>40</v>
-      </c>
-      <c r="AD11" s="5">
-        <v>55</v>
-      </c>
-      <c r="AE11" s="5">
+      <c r="S11" s="1">
+        <v>55</v>
+      </c>
+      <c r="T11" s="1">
+        <v>43</v>
+      </c>
+      <c r="U11" s="1">
+        <v>40</v>
+      </c>
+      <c r="V11" s="1">
+        <v>47</v>
+      </c>
+      <c r="W11" s="1">
+        <v>51</v>
+      </c>
+      <c r="X11" s="1">
+        <v>50</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>45</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>50</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>42</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>42</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>40</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>55</v>
+      </c>
+      <c r="AE11" s="1">
         <v>35</v>
       </c>
-      <c r="AF11" s="5">
-        <v>45</v>
-      </c>
-      <c r="AG11" s="5">
-        <v>47</v>
-      </c>
-      <c r="AH11" s="5">
+      <c r="AF11" s="1">
+        <v>45</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>47</v>
+      </c>
+      <c r="AH11" s="1">
         <v>38</v>
       </c>
-      <c r="AI11" s="5">
+      <c r="AI11" s="1">
         <v>49</v>
       </c>
-      <c r="AJ11" s="5">
+      <c r="AJ11" s="1">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:36" ht="15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:36" ht="15" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>45</v>
       </c>
@@ -1698,62 +1692,62 @@
       <c r="R12" s="1">
         <v>44</v>
       </c>
-      <c r="S12" s="5">
+      <c r="S12" s="1">
         <v>54</v>
       </c>
-      <c r="T12" s="5">
-        <v>41</v>
-      </c>
-      <c r="U12" s="5">
-        <v>40</v>
-      </c>
-      <c r="V12" s="5">
-        <v>41</v>
-      </c>
-      <c r="W12" s="5">
-        <v>41</v>
-      </c>
-      <c r="X12" s="5">
-        <v>40</v>
-      </c>
-      <c r="Y12" s="5">
-        <v>48</v>
-      </c>
-      <c r="Z12" s="5">
+      <c r="T12" s="1">
+        <v>41</v>
+      </c>
+      <c r="U12" s="1">
+        <v>40</v>
+      </c>
+      <c r="V12" s="1">
+        <v>41</v>
+      </c>
+      <c r="W12" s="1">
+        <v>41</v>
+      </c>
+      <c r="X12" s="1">
+        <v>40</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>48</v>
+      </c>
+      <c r="Z12" s="1">
         <v>30</v>
       </c>
-      <c r="AA12" s="5">
-        <v>41</v>
-      </c>
-      <c r="AB12" s="5">
-        <v>41</v>
-      </c>
-      <c r="AC12" s="5">
-        <v>41</v>
-      </c>
-      <c r="AD12" s="5">
-        <v>52</v>
-      </c>
-      <c r="AE12" s="5">
+      <c r="AA12" s="1">
+        <v>41</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>41</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>41</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>52</v>
+      </c>
+      <c r="AE12" s="1">
         <v>49</v>
       </c>
-      <c r="AF12" s="5">
-        <v>42</v>
-      </c>
-      <c r="AG12" s="5">
-        <v>48</v>
-      </c>
-      <c r="AH12" s="5">
-        <v>41</v>
-      </c>
-      <c r="AI12" s="5">
-        <v>55</v>
-      </c>
-      <c r="AJ12" s="5">
+      <c r="AF12" s="1">
+        <v>42</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>48</v>
+      </c>
+      <c r="AH12" s="1">
+        <v>41</v>
+      </c>
+      <c r="AI12" s="1">
+        <v>55</v>
+      </c>
+      <c r="AJ12" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:36" ht="15" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>49</v>
       </c>
@@ -1808,62 +1802,62 @@
       <c r="R13" s="1">
         <v>41</v>
       </c>
-      <c r="S13" s="5">
-        <v>52</v>
-      </c>
-      <c r="T13" s="5">
-        <v>42</v>
-      </c>
-      <c r="U13" s="5">
-        <v>41</v>
-      </c>
-      <c r="V13" s="5">
-        <v>50</v>
-      </c>
-      <c r="W13" s="5">
-        <v>52</v>
-      </c>
-      <c r="X13" s="5">
-        <v>40</v>
-      </c>
-      <c r="Y13" s="5">
+      <c r="S13" s="1">
+        <v>52</v>
+      </c>
+      <c r="T13" s="1">
+        <v>42</v>
+      </c>
+      <c r="U13" s="1">
+        <v>41</v>
+      </c>
+      <c r="V13" s="1">
+        <v>50</v>
+      </c>
+      <c r="W13" s="1">
+        <v>52</v>
+      </c>
+      <c r="X13" s="1">
+        <v>40</v>
+      </c>
+      <c r="Y13" s="1">
         <v>28</v>
       </c>
-      <c r="Z13" s="5">
+      <c r="Z13" s="1">
         <v>36</v>
       </c>
-      <c r="AA13" s="5">
-        <v>40</v>
-      </c>
-      <c r="AB13" s="5">
-        <v>45</v>
-      </c>
-      <c r="AC13" s="5">
+      <c r="AA13" s="1">
+        <v>40</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>45</v>
+      </c>
+      <c r="AC13" s="1">
         <v>38</v>
       </c>
-      <c r="AD13" s="5">
-        <v>48</v>
-      </c>
-      <c r="AE13" s="5">
-        <v>50</v>
-      </c>
-      <c r="AF13" s="5">
-        <v>51</v>
-      </c>
-      <c r="AG13" s="5">
-        <v>55</v>
-      </c>
-      <c r="AH13" s="5">
+      <c r="AD13" s="1">
+        <v>48</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>50</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>51</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>55</v>
+      </c>
+      <c r="AH13" s="1">
         <v>38</v>
       </c>
-      <c r="AI13" s="5">
-        <v>52</v>
-      </c>
-      <c r="AJ13" s="5">
+      <c r="AI13" s="1">
+        <v>52</v>
+      </c>
+      <c r="AJ13" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:36" ht="15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:36" ht="15" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>49</v>
       </c>
@@ -1918,62 +1912,62 @@
       <c r="R14" s="1">
         <v>42</v>
       </c>
-      <c r="S14" s="5">
-        <v>41</v>
-      </c>
-      <c r="T14" s="5">
-        <v>45</v>
-      </c>
-      <c r="U14" s="5">
-        <v>42</v>
-      </c>
-      <c r="V14" s="5">
-        <v>48</v>
-      </c>
-      <c r="W14" s="5">
+      <c r="S14" s="1">
+        <v>41</v>
+      </c>
+      <c r="T14" s="1">
+        <v>45</v>
+      </c>
+      <c r="U14" s="1">
+        <v>42</v>
+      </c>
+      <c r="V14" s="1">
+        <v>48</v>
+      </c>
+      <c r="W14" s="1">
         <v>56</v>
       </c>
-      <c r="X14" s="5">
-        <v>41</v>
-      </c>
-      <c r="Y14" s="5">
-        <v>46</v>
-      </c>
-      <c r="Z14" s="5">
-        <v>45</v>
-      </c>
-      <c r="AA14" s="5">
-        <v>45</v>
-      </c>
-      <c r="AB14" s="5">
-        <v>50</v>
-      </c>
-      <c r="AC14" s="5">
-        <v>40</v>
-      </c>
-      <c r="AD14" s="5">
+      <c r="X14" s="1">
+        <v>41</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>46</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>45</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>45</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>50</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>40</v>
+      </c>
+      <c r="AD14" s="1">
         <v>49</v>
       </c>
-      <c r="AE14" s="5">
-        <v>42</v>
-      </c>
-      <c r="AF14" s="5">
+      <c r="AE14" s="1">
+        <v>42</v>
+      </c>
+      <c r="AF14" s="1">
         <v>38</v>
       </c>
-      <c r="AG14" s="5">
-        <v>51</v>
-      </c>
-      <c r="AH14" s="5">
-        <v>45</v>
-      </c>
-      <c r="AI14" s="5">
-        <v>50</v>
-      </c>
-      <c r="AJ14" s="5">
+      <c r="AG14" s="1">
+        <v>51</v>
+      </c>
+      <c r="AH14" s="1">
+        <v>45</v>
+      </c>
+      <c r="AI14" s="1">
+        <v>50</v>
+      </c>
+      <c r="AJ14" s="1">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:36" ht="15" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>54</v>
       </c>
@@ -2028,62 +2022,62 @@
       <c r="R15" s="1">
         <v>47</v>
       </c>
-      <c r="S15" s="5">
-        <v>43</v>
-      </c>
-      <c r="T15" s="5">
+      <c r="S15" s="1">
+        <v>43</v>
+      </c>
+      <c r="T15" s="1">
         <v>44</v>
       </c>
-      <c r="U15" s="5">
-        <v>52</v>
-      </c>
-      <c r="V15" s="5">
-        <v>55</v>
-      </c>
-      <c r="W15" s="5">
-        <v>40</v>
-      </c>
-      <c r="X15" s="5">
-        <v>48</v>
-      </c>
-      <c r="Y15" s="5">
-        <v>41</v>
-      </c>
-      <c r="Z15" s="5">
-        <v>42</v>
-      </c>
-      <c r="AA15" s="5">
-        <v>47</v>
-      </c>
-      <c r="AB15" s="5">
+      <c r="U15" s="1">
+        <v>52</v>
+      </c>
+      <c r="V15" s="1">
+        <v>55</v>
+      </c>
+      <c r="W15" s="1">
+        <v>40</v>
+      </c>
+      <c r="X15" s="1">
+        <v>48</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>41</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>42</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>47</v>
+      </c>
+      <c r="AB15" s="1">
         <v>39</v>
       </c>
-      <c r="AC15" s="5">
-        <v>41</v>
-      </c>
-      <c r="AD15" s="5">
-        <v>50</v>
-      </c>
-      <c r="AE15" s="5">
+      <c r="AC15" s="1">
+        <v>41</v>
+      </c>
+      <c r="AD15" s="1">
+        <v>50</v>
+      </c>
+      <c r="AE15" s="1">
         <v>35</v>
       </c>
-      <c r="AF15" s="5">
-        <v>43</v>
-      </c>
-      <c r="AG15" s="5">
-        <v>41</v>
-      </c>
-      <c r="AH15" s="5">
+      <c r="AF15" s="1">
+        <v>43</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>41</v>
+      </c>
+      <c r="AH15" s="1">
         <v>49</v>
       </c>
-      <c r="AI15" s="5">
-        <v>48</v>
-      </c>
-      <c r="AJ15" s="5">
+      <c r="AI15" s="1">
+        <v>48</v>
+      </c>
+      <c r="AJ15" s="1">
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:36" ht="15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:36" ht="15" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>52</v>
       </c>
@@ -2138,62 +2132,62 @@
       <c r="R16" s="1">
         <v>40</v>
       </c>
-      <c r="S16" s="5">
-        <v>40</v>
-      </c>
-      <c r="T16" s="5">
-        <v>48</v>
-      </c>
-      <c r="U16" s="5">
-        <v>42</v>
-      </c>
-      <c r="V16" s="5">
-        <v>41</v>
-      </c>
-      <c r="W16" s="5">
-        <v>50</v>
-      </c>
-      <c r="X16" s="5">
-        <v>42</v>
-      </c>
-      <c r="Y16" s="5">
-        <v>47</v>
-      </c>
-      <c r="Z16" s="5">
+      <c r="S16" s="1">
+        <v>40</v>
+      </c>
+      <c r="T16" s="1">
+        <v>48</v>
+      </c>
+      <c r="U16" s="1">
+        <v>42</v>
+      </c>
+      <c r="V16" s="1">
+        <v>41</v>
+      </c>
+      <c r="W16" s="1">
+        <v>50</v>
+      </c>
+      <c r="X16" s="1">
+        <v>42</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>47</v>
+      </c>
+      <c r="Z16" s="1">
         <v>27</v>
       </c>
-      <c r="AA16" s="5">
-        <v>41</v>
-      </c>
-      <c r="AB16" s="5">
-        <v>40</v>
-      </c>
-      <c r="AC16" s="5">
-        <v>51</v>
-      </c>
-      <c r="AD16" s="5">
-        <v>41</v>
-      </c>
-      <c r="AE16" s="5">
-        <v>50</v>
-      </c>
-      <c r="AF16" s="5">
-        <v>55</v>
-      </c>
-      <c r="AG16" s="5">
-        <v>47</v>
-      </c>
-      <c r="AH16" s="5">
-        <v>48</v>
-      </c>
-      <c r="AI16" s="5">
-        <v>47</v>
-      </c>
-      <c r="AJ16" s="5">
+      <c r="AA16" s="1">
+        <v>41</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>40</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>51</v>
+      </c>
+      <c r="AD16" s="1">
+        <v>41</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>50</v>
+      </c>
+      <c r="AF16" s="1">
+        <v>55</v>
+      </c>
+      <c r="AG16" s="1">
+        <v>47</v>
+      </c>
+      <c r="AH16" s="1">
+        <v>48</v>
+      </c>
+      <c r="AI16" s="1">
+        <v>47</v>
+      </c>
+      <c r="AJ16" s="1">
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:36" ht="15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:36" ht="15" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>50</v>
       </c>
@@ -2248,62 +2242,62 @@
       <c r="R17" s="1">
         <v>50</v>
       </c>
-      <c r="S17" s="5">
-        <v>41</v>
-      </c>
-      <c r="T17" s="5">
-        <v>43</v>
-      </c>
-      <c r="U17" s="5">
-        <v>40</v>
-      </c>
-      <c r="V17" s="5">
-        <v>40</v>
-      </c>
-      <c r="W17" s="5">
-        <v>46</v>
-      </c>
-      <c r="X17" s="5">
-        <v>46</v>
-      </c>
-      <c r="Y17" s="5">
-        <v>40</v>
-      </c>
-      <c r="Z17" s="5">
-        <v>50</v>
-      </c>
-      <c r="AA17" s="5">
-        <v>40</v>
-      </c>
-      <c r="AB17" s="5">
+      <c r="S17" s="1">
+        <v>41</v>
+      </c>
+      <c r="T17" s="1">
+        <v>43</v>
+      </c>
+      <c r="U17" s="1">
+        <v>40</v>
+      </c>
+      <c r="V17" s="1">
+        <v>40</v>
+      </c>
+      <c r="W17" s="1">
+        <v>46</v>
+      </c>
+      <c r="X17" s="1">
+        <v>46</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>40</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>50</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>40</v>
+      </c>
+      <c r="AB17" s="1">
         <v>66</v>
       </c>
-      <c r="AC17" s="5">
+      <c r="AC17" s="1">
         <v>38</v>
       </c>
-      <c r="AD17" s="5">
-        <v>45</v>
-      </c>
-      <c r="AE17" s="5">
-        <v>46</v>
-      </c>
-      <c r="AF17" s="5">
+      <c r="AD17" s="1">
+        <v>45</v>
+      </c>
+      <c r="AE17" s="1">
+        <v>46</v>
+      </c>
+      <c r="AF17" s="1">
         <v>44</v>
       </c>
-      <c r="AG17" s="5">
-        <v>42</v>
-      </c>
-      <c r="AH17" s="5">
+      <c r="AG17" s="1">
+        <v>42</v>
+      </c>
+      <c r="AH17" s="1">
         <v>44</v>
       </c>
-      <c r="AI17" s="5">
+      <c r="AI17" s="1">
         <v>38</v>
       </c>
-      <c r="AJ17" s="5">
+      <c r="AJ17" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:36" ht="15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:36" ht="15" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>57</v>
       </c>
@@ -2358,62 +2352,62 @@
       <c r="R18" s="1">
         <v>52</v>
       </c>
-      <c r="S18" s="5">
+      <c r="S18" s="1">
         <v>32</v>
       </c>
-      <c r="T18" s="5">
-        <v>47</v>
-      </c>
-      <c r="U18" s="5">
+      <c r="T18" s="1">
+        <v>47</v>
+      </c>
+      <c r="U18" s="1">
         <v>39</v>
       </c>
-      <c r="V18" s="5">
+      <c r="V18" s="1">
         <v>49</v>
       </c>
-      <c r="W18" s="5">
-        <v>43</v>
-      </c>
-      <c r="X18" s="5">
-        <v>51</v>
-      </c>
-      <c r="Y18" s="5">
+      <c r="W18" s="1">
+        <v>43</v>
+      </c>
+      <c r="X18" s="1">
+        <v>51</v>
+      </c>
+      <c r="Y18" s="1">
         <v>54</v>
       </c>
-      <c r="Z18" s="5">
-        <v>40</v>
-      </c>
-      <c r="AA18" s="5">
+      <c r="Z18" s="1">
+        <v>40</v>
+      </c>
+      <c r="AA18" s="1">
         <v>37</v>
       </c>
-      <c r="AB18" s="5">
-        <v>40</v>
-      </c>
-      <c r="AC18" s="5">
-        <v>51</v>
-      </c>
-      <c r="AD18" s="5">
-        <v>50</v>
-      </c>
-      <c r="AE18" s="5">
-        <v>41</v>
-      </c>
-      <c r="AF18" s="5">
-        <v>52</v>
-      </c>
-      <c r="AG18" s="6">
-        <v>47</v>
-      </c>
-      <c r="AH18" s="5">
-        <v>51</v>
-      </c>
-      <c r="AI18" s="5">
-        <v>40</v>
-      </c>
-      <c r="AJ18" s="5">
+      <c r="AB18" s="1">
+        <v>40</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>51</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>50</v>
+      </c>
+      <c r="AE18" s="1">
+        <v>41</v>
+      </c>
+      <c r="AF18" s="1">
+        <v>52</v>
+      </c>
+      <c r="AG18" s="5">
+        <v>47</v>
+      </c>
+      <c r="AH18" s="1">
+        <v>51</v>
+      </c>
+      <c r="AI18" s="1">
+        <v>40</v>
+      </c>
+      <c r="AJ18" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:36" ht="15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:36" ht="15" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>63</v>
       </c>
@@ -2468,62 +2462,62 @@
       <c r="R19" s="1">
         <v>51</v>
       </c>
-      <c r="S19" s="5">
-        <v>40</v>
-      </c>
-      <c r="T19" s="5">
-        <v>45</v>
-      </c>
-      <c r="U19" s="5">
+      <c r="S19" s="1">
+        <v>40</v>
+      </c>
+      <c r="T19" s="1">
+        <v>45</v>
+      </c>
+      <c r="U19" s="1">
         <v>38</v>
       </c>
-      <c r="V19" s="5">
+      <c r="V19" s="1">
         <v>44</v>
       </c>
-      <c r="W19" s="5">
-        <v>50</v>
-      </c>
-      <c r="X19" s="5">
-        <v>40</v>
-      </c>
-      <c r="Y19" s="5">
-        <v>40</v>
-      </c>
-      <c r="Z19" s="5">
-        <v>48</v>
-      </c>
-      <c r="AA19" s="5">
+      <c r="W19" s="1">
+        <v>50</v>
+      </c>
+      <c r="X19" s="1">
+        <v>40</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>40</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>48</v>
+      </c>
+      <c r="AA19" s="1">
         <v>38</v>
       </c>
-      <c r="AB19" s="5">
-        <v>41</v>
-      </c>
-      <c r="AC19" s="5">
-        <v>48</v>
-      </c>
-      <c r="AD19" s="5">
-        <v>51</v>
-      </c>
-      <c r="AE19" s="5">
+      <c r="AB19" s="1">
+        <v>41</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>48</v>
+      </c>
+      <c r="AD19" s="1">
+        <v>51</v>
+      </c>
+      <c r="AE19" s="1">
         <v>49</v>
       </c>
-      <c r="AF19" s="5">
-        <v>40</v>
-      </c>
-      <c r="AG19" s="5">
-        <v>40</v>
-      </c>
-      <c r="AH19" s="5">
+      <c r="AF19" s="1">
+        <v>40</v>
+      </c>
+      <c r="AG19" s="1">
+        <v>40</v>
+      </c>
+      <c r="AH19" s="1">
         <v>53</v>
       </c>
-      <c r="AI19" s="5">
-        <v>50</v>
-      </c>
-      <c r="AJ19" s="5">
+      <c r="AI19" s="1">
+        <v>50</v>
+      </c>
+      <c r="AJ19" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:36" ht="15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:36" ht="15" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>51</v>
       </c>
@@ -2578,62 +2572,62 @@
       <c r="R20" s="1">
         <v>57</v>
       </c>
-      <c r="S20" s="5">
-        <v>52</v>
-      </c>
-      <c r="T20" s="5">
-        <v>50</v>
-      </c>
-      <c r="U20" s="5">
-        <v>50</v>
-      </c>
-      <c r="V20" s="5">
-        <v>40</v>
-      </c>
-      <c r="W20" s="5">
-        <v>50</v>
-      </c>
-      <c r="X20" s="5">
-        <v>52</v>
-      </c>
-      <c r="Y20" s="5">
-        <v>40</v>
-      </c>
-      <c r="Z20" s="5">
+      <c r="S20" s="1">
+        <v>52</v>
+      </c>
+      <c r="T20" s="1">
+        <v>50</v>
+      </c>
+      <c r="U20" s="1">
+        <v>50</v>
+      </c>
+      <c r="V20" s="1">
+        <v>40</v>
+      </c>
+      <c r="W20" s="1">
+        <v>50</v>
+      </c>
+      <c r="X20" s="1">
+        <v>52</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>40</v>
+      </c>
+      <c r="Z20" s="1">
         <v>60</v>
       </c>
-      <c r="AA20" s="5">
+      <c r="AA20" s="1">
         <v>58</v>
       </c>
-      <c r="AB20" s="5">
+      <c r="AB20" s="1">
         <v>53</v>
       </c>
-      <c r="AC20" s="5">
-        <v>41</v>
-      </c>
-      <c r="AD20" s="5">
+      <c r="AC20" s="1">
+        <v>41</v>
+      </c>
+      <c r="AD20" s="1">
         <v>37</v>
       </c>
-      <c r="AE20" s="5">
-        <v>50</v>
-      </c>
-      <c r="AF20" s="5">
+      <c r="AE20" s="1">
+        <v>50</v>
+      </c>
+      <c r="AF20" s="1">
         <v>54</v>
       </c>
-      <c r="AG20" s="5">
-        <v>42</v>
-      </c>
-      <c r="AH20" s="5">
+      <c r="AG20" s="1">
+        <v>42</v>
+      </c>
+      <c r="AH20" s="1">
         <v>58</v>
       </c>
-      <c r="AI20" s="5">
+      <c r="AI20" s="1">
         <v>53</v>
       </c>
-      <c r="AJ20" s="5">
+      <c r="AJ20" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:36" ht="15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:36" ht="15" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>47</v>
       </c>
@@ -2688,62 +2682,62 @@
       <c r="R21" s="1">
         <v>70</v>
       </c>
-      <c r="S21" s="5">
-        <v>45</v>
-      </c>
-      <c r="T21" s="5">
+      <c r="S21" s="1">
+        <v>45</v>
+      </c>
+      <c r="T21" s="1">
         <v>57</v>
       </c>
-      <c r="U21" s="5">
-        <v>40</v>
-      </c>
-      <c r="V21" s="5">
+      <c r="U21" s="1">
+        <v>40</v>
+      </c>
+      <c r="V21" s="1">
         <v>59</v>
       </c>
-      <c r="W21" s="5">
-        <v>40</v>
-      </c>
-      <c r="X21" s="5">
-        <v>41</v>
-      </c>
-      <c r="Y21" s="5">
-        <v>52</v>
-      </c>
-      <c r="Z21" s="5">
-        <v>48</v>
-      </c>
-      <c r="AA21" s="5">
-        <v>42</v>
-      </c>
-      <c r="AB21" s="5">
+      <c r="W21" s="1">
+        <v>40</v>
+      </c>
+      <c r="X21" s="1">
+        <v>41</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>52</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>48</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>42</v>
+      </c>
+      <c r="AB21" s="1">
         <v>34</v>
       </c>
-      <c r="AC21" s="5">
-        <v>50</v>
-      </c>
-      <c r="AD21" s="5">
-        <v>46</v>
-      </c>
-      <c r="AE21" s="5">
-        <v>40</v>
-      </c>
-      <c r="AF21" s="5">
+      <c r="AC21" s="1">
+        <v>50</v>
+      </c>
+      <c r="AD21" s="1">
+        <v>46</v>
+      </c>
+      <c r="AE21" s="1">
+        <v>40</v>
+      </c>
+      <c r="AF21" s="1">
         <v>56</v>
       </c>
-      <c r="AG21" s="5">
-        <v>40</v>
-      </c>
-      <c r="AH21" s="5">
-        <v>45</v>
-      </c>
-      <c r="AI21" s="5">
-        <v>46</v>
-      </c>
-      <c r="AJ21" s="5">
+      <c r="AG21" s="1">
+        <v>40</v>
+      </c>
+      <c r="AH21" s="1">
+        <v>45</v>
+      </c>
+      <c r="AI21" s="1">
+        <v>46</v>
+      </c>
+      <c r="AJ21" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:36" ht="15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:36" ht="15" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>40</v>
       </c>
@@ -2798,62 +2792,62 @@
       <c r="R22" s="1">
         <v>46</v>
       </c>
-      <c r="S22" s="5">
+      <c r="S22" s="1">
         <v>54</v>
       </c>
-      <c r="T22" s="5">
-        <v>43</v>
-      </c>
-      <c r="U22" s="5">
-        <v>50</v>
-      </c>
-      <c r="V22" s="5">
-        <v>45</v>
-      </c>
-      <c r="W22" s="5">
+      <c r="T22" s="1">
+        <v>43</v>
+      </c>
+      <c r="U22" s="1">
+        <v>50</v>
+      </c>
+      <c r="V22" s="1">
+        <v>45</v>
+      </c>
+      <c r="W22" s="1">
         <v>49</v>
       </c>
-      <c r="X22" s="5">
-        <v>50</v>
-      </c>
-      <c r="Y22" s="5">
-        <v>42</v>
-      </c>
-      <c r="Z22" s="5">
-        <v>40</v>
-      </c>
-      <c r="AA22" s="5">
-        <v>41</v>
-      </c>
-      <c r="AB22" s="5">
+      <c r="X22" s="1">
+        <v>50</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>42</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>40</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>41</v>
+      </c>
+      <c r="AB22" s="1">
         <v>35</v>
       </c>
-      <c r="AC22" s="5">
-        <v>40</v>
-      </c>
-      <c r="AD22" s="5">
-        <v>40</v>
-      </c>
-      <c r="AE22" s="5">
+      <c r="AC22" s="1">
+        <v>40</v>
+      </c>
+      <c r="AD22" s="1">
+        <v>40</v>
+      </c>
+      <c r="AE22" s="1">
         <v>60</v>
       </c>
-      <c r="AF22" s="5">
-        <v>45</v>
-      </c>
-      <c r="AG22" s="5">
-        <v>46</v>
-      </c>
-      <c r="AH22" s="5">
-        <v>40</v>
-      </c>
-      <c r="AI22" s="5">
-        <v>48</v>
-      </c>
-      <c r="AJ22" s="5">
+      <c r="AF22" s="1">
+        <v>45</v>
+      </c>
+      <c r="AG22" s="1">
+        <v>46</v>
+      </c>
+      <c r="AH22" s="1">
+        <v>40</v>
+      </c>
+      <c r="AI22" s="1">
+        <v>48</v>
+      </c>
+      <c r="AJ22" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:36" ht="15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:36" ht="15" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>40</v>
       </c>
@@ -2908,62 +2902,62 @@
       <c r="R23" s="1">
         <v>51</v>
       </c>
-      <c r="S23" s="5">
-        <v>43</v>
-      </c>
-      <c r="T23" s="5">
+      <c r="S23" s="1">
+        <v>43</v>
+      </c>
+      <c r="T23" s="1">
         <v>57</v>
       </c>
-      <c r="U23" s="5">
-        <v>50</v>
-      </c>
-      <c r="V23" s="5">
-        <v>40</v>
-      </c>
-      <c r="W23" s="5">
+      <c r="U23" s="1">
+        <v>50</v>
+      </c>
+      <c r="V23" s="1">
+        <v>40</v>
+      </c>
+      <c r="W23" s="1">
         <v>35</v>
       </c>
-      <c r="X23" s="5">
-        <v>46</v>
-      </c>
-      <c r="Y23" s="5">
-        <v>40</v>
-      </c>
-      <c r="Z23" s="5">
-        <v>40</v>
-      </c>
-      <c r="AA23" s="5">
-        <v>40</v>
-      </c>
-      <c r="AB23" s="5">
-        <v>47</v>
-      </c>
-      <c r="AC23" s="5">
-        <v>40</v>
-      </c>
-      <c r="AD23" s="5">
-        <v>52</v>
-      </c>
-      <c r="AE23" s="5">
-        <v>40</v>
-      </c>
-      <c r="AF23" s="5">
-        <v>46</v>
-      </c>
-      <c r="AG23" s="5">
-        <v>52</v>
-      </c>
-      <c r="AH23" s="5">
+      <c r="X23" s="1">
+        <v>46</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>40</v>
+      </c>
+      <c r="Z23" s="1">
+        <v>40</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>40</v>
+      </c>
+      <c r="AB23" s="1">
+        <v>47</v>
+      </c>
+      <c r="AC23" s="1">
+        <v>40</v>
+      </c>
+      <c r="AD23" s="1">
+        <v>52</v>
+      </c>
+      <c r="AE23" s="1">
+        <v>40</v>
+      </c>
+      <c r="AF23" s="1">
+        <v>46</v>
+      </c>
+      <c r="AG23" s="1">
+        <v>52</v>
+      </c>
+      <c r="AH23" s="1">
         <v>44</v>
       </c>
-      <c r="AI23" s="5">
-        <v>52</v>
-      </c>
-      <c r="AJ23" s="5">
+      <c r="AI23" s="1">
+        <v>52</v>
+      </c>
+      <c r="AJ23" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:36" ht="15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:36" ht="15" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>42</v>
       </c>
@@ -3018,62 +3012,62 @@
       <c r="R24" s="1">
         <v>43</v>
       </c>
-      <c r="S24" s="5">
-        <v>43</v>
-      </c>
-      <c r="T24" s="5">
-        <v>42</v>
-      </c>
-      <c r="U24" s="5">
-        <v>40</v>
-      </c>
-      <c r="V24" s="5">
+      <c r="S24" s="1">
+        <v>43</v>
+      </c>
+      <c r="T24" s="1">
+        <v>42</v>
+      </c>
+      <c r="U24" s="1">
+        <v>40</v>
+      </c>
+      <c r="V24" s="1">
         <v>35</v>
       </c>
-      <c r="W24" s="5">
-        <v>40</v>
-      </c>
-      <c r="X24" s="5">
-        <v>48</v>
-      </c>
-      <c r="Y24" s="5">
-        <v>50</v>
-      </c>
-      <c r="Z24" s="5">
-        <v>40</v>
-      </c>
-      <c r="AA24" s="5">
-        <v>55</v>
-      </c>
-      <c r="AB24" s="5">
-        <v>40</v>
-      </c>
-      <c r="AC24" s="5">
-        <v>50</v>
-      </c>
-      <c r="AD24" s="5">
+      <c r="W24" s="1">
+        <v>40</v>
+      </c>
+      <c r="X24" s="1">
+        <v>48</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>50</v>
+      </c>
+      <c r="Z24" s="1">
+        <v>40</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>55</v>
+      </c>
+      <c r="AB24" s="1">
+        <v>40</v>
+      </c>
+      <c r="AC24" s="1">
+        <v>50</v>
+      </c>
+      <c r="AD24" s="1">
         <v>25</v>
       </c>
-      <c r="AE24" s="5">
-        <v>41</v>
-      </c>
-      <c r="AF24" s="5">
-        <v>42</v>
-      </c>
-      <c r="AG24" s="5">
+      <c r="AE24" s="1">
+        <v>41</v>
+      </c>
+      <c r="AF24" s="1">
+        <v>42</v>
+      </c>
+      <c r="AG24" s="1">
         <v>49</v>
       </c>
-      <c r="AH24" s="5">
-        <v>48</v>
-      </c>
-      <c r="AI24" s="5">
-        <v>55</v>
-      </c>
-      <c r="AJ24" s="5">
+      <c r="AH24" s="1">
+        <v>48</v>
+      </c>
+      <c r="AI24" s="1">
+        <v>55</v>
+      </c>
+      <c r="AJ24" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:36" ht="15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:36" ht="15" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>41</v>
       </c>
@@ -3128,62 +3122,62 @@
       <c r="R25" s="1">
         <v>52</v>
       </c>
-      <c r="S25" s="5">
-        <v>47</v>
-      </c>
-      <c r="T25" s="5">
-        <v>55</v>
-      </c>
-      <c r="U25" s="5">
+      <c r="S25" s="1">
+        <v>47</v>
+      </c>
+      <c r="T25" s="1">
+        <v>55</v>
+      </c>
+      <c r="U25" s="1">
         <v>56</v>
       </c>
-      <c r="V25" s="5">
-        <v>43</v>
-      </c>
-      <c r="W25" s="5">
-        <v>43</v>
-      </c>
-      <c r="X25" s="5">
-        <v>40</v>
-      </c>
-      <c r="Y25" s="5">
-        <v>45</v>
-      </c>
-      <c r="Z25" s="5">
-        <v>47</v>
-      </c>
-      <c r="AA25" s="5">
-        <v>40</v>
-      </c>
-      <c r="AB25" s="5">
+      <c r="V25" s="1">
+        <v>43</v>
+      </c>
+      <c r="W25" s="1">
+        <v>43</v>
+      </c>
+      <c r="X25" s="1">
+        <v>40</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>45</v>
+      </c>
+      <c r="Z25" s="1">
+        <v>47</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>40</v>
+      </c>
+      <c r="AB25" s="1">
         <v>35</v>
       </c>
-      <c r="AC25" s="5">
-        <v>42</v>
-      </c>
-      <c r="AD25" s="5">
+      <c r="AC25" s="1">
+        <v>42</v>
+      </c>
+      <c r="AD25" s="1">
         <v>62</v>
       </c>
-      <c r="AE25" s="5">
-        <v>46</v>
-      </c>
-      <c r="AF25" s="5">
-        <v>40</v>
-      </c>
-      <c r="AG25" s="5">
+      <c r="AE25" s="1">
+        <v>46</v>
+      </c>
+      <c r="AF25" s="1">
+        <v>40</v>
+      </c>
+      <c r="AG25" s="1">
         <v>60</v>
       </c>
-      <c r="AH25" s="5">
-        <v>50</v>
-      </c>
-      <c r="AI25" s="5">
+      <c r="AH25" s="1">
+        <v>50</v>
+      </c>
+      <c r="AI25" s="1">
         <v>58</v>
       </c>
-      <c r="AJ25" s="5">
+      <c r="AJ25" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:36" ht="15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:36" ht="15" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>40</v>
       </c>
@@ -3238,62 +3232,62 @@
       <c r="R26" s="1">
         <v>57</v>
       </c>
-      <c r="S26" s="5">
+      <c r="S26" s="1">
         <v>53</v>
       </c>
-      <c r="T26" s="5">
+      <c r="T26" s="1">
         <v>66</v>
       </c>
-      <c r="U26" s="5">
+      <c r="U26" s="1">
         <v>61</v>
       </c>
-      <c r="V26" s="5">
-        <v>48</v>
-      </c>
-      <c r="W26" s="5">
+      <c r="V26" s="1">
+        <v>48</v>
+      </c>
+      <c r="W26" s="1">
         <v>57</v>
       </c>
-      <c r="X26" s="5">
+      <c r="X26" s="1">
         <v>60</v>
       </c>
-      <c r="Y26" s="5">
+      <c r="Y26" s="1">
         <v>60</v>
       </c>
-      <c r="Z26" s="5">
+      <c r="Z26" s="1">
         <v>65</v>
       </c>
-      <c r="AA26" s="5">
-        <v>51</v>
-      </c>
-      <c r="AB26" s="5">
-        <v>50</v>
-      </c>
-      <c r="AC26" s="5">
-        <v>45</v>
-      </c>
-      <c r="AD26" s="5">
-        <v>48</v>
-      </c>
-      <c r="AE26" s="5">
-        <v>50</v>
-      </c>
-      <c r="AF26" s="5">
-        <v>50</v>
-      </c>
-      <c r="AG26" s="5">
-        <v>46</v>
-      </c>
-      <c r="AH26" s="5">
-        <v>43</v>
-      </c>
-      <c r="AI26" s="5">
-        <v>47</v>
-      </c>
-      <c r="AJ26" s="5">
+      <c r="AA26" s="1">
+        <v>51</v>
+      </c>
+      <c r="AB26" s="1">
+        <v>50</v>
+      </c>
+      <c r="AC26" s="1">
+        <v>45</v>
+      </c>
+      <c r="AD26" s="1">
+        <v>48</v>
+      </c>
+      <c r="AE26" s="1">
+        <v>50</v>
+      </c>
+      <c r="AF26" s="1">
+        <v>50</v>
+      </c>
+      <c r="AG26" s="1">
+        <v>46</v>
+      </c>
+      <c r="AH26" s="1">
+        <v>43</v>
+      </c>
+      <c r="AI26" s="1">
+        <v>47</v>
+      </c>
+      <c r="AJ26" s="1">
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:36" ht="15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:36" ht="15" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>40</v>
       </c>
@@ -3348,62 +3342,62 @@
       <c r="R27" s="1">
         <v>60</v>
       </c>
-      <c r="S27" s="5">
-        <v>40</v>
-      </c>
-      <c r="T27" s="5">
+      <c r="S27" s="1">
+        <v>40</v>
+      </c>
+      <c r="T27" s="1">
         <v>57</v>
       </c>
-      <c r="U27" s="5">
+      <c r="U27" s="1">
         <v>49</v>
       </c>
-      <c r="V27" s="5">
-        <v>52</v>
-      </c>
-      <c r="W27" s="5">
-        <v>40</v>
-      </c>
-      <c r="X27" s="5">
-        <v>55</v>
-      </c>
-      <c r="Y27" s="5">
-        <v>47</v>
-      </c>
-      <c r="Z27" s="5">
-        <v>48</v>
-      </c>
-      <c r="AA27" s="5">
-        <v>50</v>
-      </c>
-      <c r="AB27" s="5">
+      <c r="V27" s="1">
+        <v>52</v>
+      </c>
+      <c r="W27" s="1">
+        <v>40</v>
+      </c>
+      <c r="X27" s="1">
+        <v>55</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>47</v>
+      </c>
+      <c r="Z27" s="1">
+        <v>48</v>
+      </c>
+      <c r="AA27" s="1">
+        <v>50</v>
+      </c>
+      <c r="AB27" s="1">
         <v>53</v>
       </c>
-      <c r="AC27" s="5">
-        <v>45</v>
-      </c>
-      <c r="AD27" s="5">
-        <v>48</v>
-      </c>
-      <c r="AE27" s="5">
-        <v>50</v>
-      </c>
-      <c r="AF27" s="5">
-        <v>40</v>
-      </c>
-      <c r="AG27" s="5">
+      <c r="AC27" s="1">
+        <v>45</v>
+      </c>
+      <c r="AD27" s="1">
+        <v>48</v>
+      </c>
+      <c r="AE27" s="1">
+        <v>50</v>
+      </c>
+      <c r="AF27" s="1">
+        <v>40</v>
+      </c>
+      <c r="AG27" s="1">
         <v>33</v>
       </c>
-      <c r="AH27" s="5">
+      <c r="AH27" s="1">
         <v>44</v>
       </c>
-      <c r="AI27" s="5">
-        <v>40</v>
-      </c>
-      <c r="AJ27" s="5">
+      <c r="AI27" s="1">
+        <v>40</v>
+      </c>
+      <c r="AJ27" s="1">
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:36" ht="15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:36" ht="15" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>43</v>
       </c>
@@ -3458,62 +3452,62 @@
       <c r="R28" s="1">
         <v>56</v>
       </c>
-      <c r="S28" s="5">
-        <v>43</v>
-      </c>
-      <c r="T28" s="5">
-        <v>55</v>
-      </c>
-      <c r="U28" s="5">
-        <v>40</v>
-      </c>
-      <c r="V28" s="5">
-        <v>50</v>
-      </c>
-      <c r="W28" s="5">
-        <v>40</v>
-      </c>
-      <c r="X28" s="5">
-        <v>52</v>
-      </c>
-      <c r="Y28" s="5">
+      <c r="S28" s="1">
+        <v>43</v>
+      </c>
+      <c r="T28" s="1">
+        <v>55</v>
+      </c>
+      <c r="U28" s="1">
+        <v>40</v>
+      </c>
+      <c r="V28" s="1">
+        <v>50</v>
+      </c>
+      <c r="W28" s="1">
+        <v>40</v>
+      </c>
+      <c r="X28" s="1">
+        <v>52</v>
+      </c>
+      <c r="Y28" s="1">
         <v>26</v>
       </c>
-      <c r="Z28" s="5">
-        <v>40</v>
-      </c>
-      <c r="AA28" s="5">
-        <v>40</v>
-      </c>
-      <c r="AB28" s="5">
-        <v>46</v>
-      </c>
-      <c r="AC28" s="5">
-        <v>51</v>
-      </c>
-      <c r="AD28" s="5">
-        <v>40</v>
-      </c>
-      <c r="AE28" s="5">
+      <c r="Z28" s="1">
+        <v>40</v>
+      </c>
+      <c r="AA28" s="1">
+        <v>40</v>
+      </c>
+      <c r="AB28" s="1">
+        <v>46</v>
+      </c>
+      <c r="AC28" s="1">
+        <v>51</v>
+      </c>
+      <c r="AD28" s="1">
+        <v>40</v>
+      </c>
+      <c r="AE28" s="1">
         <v>58</v>
       </c>
-      <c r="AF28" s="5">
+      <c r="AF28" s="1">
         <v>44</v>
       </c>
-      <c r="AG28" s="5">
-        <v>47</v>
-      </c>
-      <c r="AH28" s="5">
-        <v>43</v>
-      </c>
-      <c r="AI28" s="5">
-        <v>40</v>
-      </c>
-      <c r="AJ28" s="5">
+      <c r="AG28" s="1">
+        <v>47</v>
+      </c>
+      <c r="AH28" s="1">
+        <v>43</v>
+      </c>
+      <c r="AI28" s="1">
+        <v>40</v>
+      </c>
+      <c r="AJ28" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:36" ht="15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:36" ht="15" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>30</v>
       </c>
@@ -3568,62 +3562,62 @@
       <c r="R29" s="1">
         <v>47</v>
       </c>
-      <c r="S29" s="5">
+      <c r="S29" s="1">
         <v>53</v>
       </c>
-      <c r="T29" s="5">
-        <v>40</v>
-      </c>
-      <c r="U29" s="5">
-        <v>50</v>
-      </c>
-      <c r="V29" s="5">
-        <v>52</v>
-      </c>
-      <c r="W29" s="5">
-        <v>55</v>
-      </c>
-      <c r="X29" s="5">
+      <c r="T29" s="1">
+        <v>40</v>
+      </c>
+      <c r="U29" s="1">
+        <v>50</v>
+      </c>
+      <c r="V29" s="1">
+        <v>52</v>
+      </c>
+      <c r="W29" s="1">
+        <v>55</v>
+      </c>
+      <c r="X29" s="1">
         <v>31</v>
       </c>
-      <c r="Y29" s="5">
-        <v>40</v>
-      </c>
-      <c r="Z29" s="5">
+      <c r="Y29" s="1">
+        <v>40</v>
+      </c>
+      <c r="Z29" s="1">
         <v>56</v>
       </c>
-      <c r="AA29" s="5">
-        <v>40</v>
-      </c>
-      <c r="AB29" s="5">
+      <c r="AA29" s="1">
+        <v>40</v>
+      </c>
+      <c r="AB29" s="1">
         <v>30</v>
       </c>
       <c r="AC29" s="4">
         <v>42</v>
       </c>
-      <c r="AD29" s="5">
-        <v>47</v>
-      </c>
-      <c r="AE29" s="5">
-        <v>40</v>
-      </c>
-      <c r="AF29" s="5">
-        <v>40</v>
-      </c>
-      <c r="AG29" s="5">
-        <v>40</v>
-      </c>
-      <c r="AH29" s="5">
-        <v>45</v>
-      </c>
-      <c r="AI29" s="5">
-        <v>43</v>
-      </c>
-      <c r="AJ29" s="5">
+      <c r="AD29" s="1">
+        <v>47</v>
+      </c>
+      <c r="AE29" s="1">
+        <v>40</v>
+      </c>
+      <c r="AF29" s="1">
+        <v>40</v>
+      </c>
+      <c r="AG29" s="1">
+        <v>40</v>
+      </c>
+      <c r="AH29" s="1">
+        <v>45</v>
+      </c>
+      <c r="AI29" s="1">
+        <v>43</v>
+      </c>
+      <c r="AJ29" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:36" ht="15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:36" ht="15" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>46</v>
       </c>
@@ -3678,62 +3672,62 @@
       <c r="R30" s="1">
         <v>57</v>
       </c>
-      <c r="S30" s="5">
-        <v>55</v>
-      </c>
-      <c r="T30" s="5">
+      <c r="S30" s="1">
+        <v>55</v>
+      </c>
+      <c r="T30" s="1">
         <v>44</v>
       </c>
-      <c r="U30" s="5">
-        <v>45</v>
-      </c>
-      <c r="V30" s="5">
+      <c r="U30" s="1">
+        <v>45</v>
+      </c>
+      <c r="V30" s="1">
         <v>30</v>
       </c>
-      <c r="W30" s="5">
-        <v>52</v>
-      </c>
-      <c r="X30" s="5">
-        <v>46</v>
-      </c>
-      <c r="Y30" s="5">
-        <v>45</v>
-      </c>
-      <c r="Z30" s="5">
-        <v>50</v>
-      </c>
-      <c r="AA30" s="5">
-        <v>42</v>
-      </c>
-      <c r="AB30" s="5">
-        <v>55</v>
-      </c>
-      <c r="AC30" s="5">
+      <c r="W30" s="1">
+        <v>52</v>
+      </c>
+      <c r="X30" s="1">
+        <v>46</v>
+      </c>
+      <c r="Y30" s="1">
+        <v>45</v>
+      </c>
+      <c r="Z30" s="1">
+        <v>50</v>
+      </c>
+      <c r="AA30" s="1">
+        <v>42</v>
+      </c>
+      <c r="AB30" s="1">
+        <v>55</v>
+      </c>
+      <c r="AC30" s="1">
         <v>57</v>
       </c>
-      <c r="AD30" s="5">
+      <c r="AD30" s="1">
         <v>56</v>
       </c>
-      <c r="AE30" s="5">
+      <c r="AE30" s="1">
         <v>27</v>
       </c>
-      <c r="AF30" s="5">
+      <c r="AF30" s="1">
         <v>35</v>
       </c>
-      <c r="AG30" s="5">
+      <c r="AG30" s="1">
         <v>60</v>
       </c>
-      <c r="AH30" s="5">
-        <v>48</v>
-      </c>
-      <c r="AI30" s="5">
-        <v>42</v>
-      </c>
-      <c r="AJ30" s="5">
+      <c r="AH30" s="1">
+        <v>48</v>
+      </c>
+      <c r="AI30" s="1">
+        <v>42</v>
+      </c>
+      <c r="AJ30" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:36" ht="15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:36" ht="15" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>40</v>
       </c>
@@ -3788,62 +3782,62 @@
       <c r="R31" s="1">
         <v>51</v>
       </c>
-      <c r="S31" s="5">
-        <v>50</v>
-      </c>
-      <c r="T31" s="5">
+      <c r="S31" s="1">
+        <v>50</v>
+      </c>
+      <c r="T31" s="1">
         <v>53</v>
       </c>
-      <c r="U31" s="5">
-        <v>48</v>
-      </c>
-      <c r="V31" s="5">
-        <v>48</v>
-      </c>
-      <c r="W31" s="5">
-        <v>50</v>
-      </c>
-      <c r="X31" s="5">
-        <v>43</v>
-      </c>
-      <c r="Y31" s="5">
+      <c r="U31" s="1">
+        <v>48</v>
+      </c>
+      <c r="V31" s="1">
+        <v>48</v>
+      </c>
+      <c r="W31" s="1">
+        <v>50</v>
+      </c>
+      <c r="X31" s="1">
+        <v>43</v>
+      </c>
+      <c r="Y31" s="1">
         <v>65</v>
       </c>
-      <c r="Z31" s="5">
+      <c r="Z31" s="1">
         <v>61</v>
       </c>
-      <c r="AA31" s="5">
-        <v>55</v>
-      </c>
-      <c r="AB31" s="5">
+      <c r="AA31" s="1">
+        <v>55</v>
+      </c>
+      <c r="AB31" s="1">
         <v>57</v>
       </c>
-      <c r="AC31" s="5">
-        <v>55</v>
-      </c>
-      <c r="AD31" s="5">
+      <c r="AC31" s="1">
+        <v>55</v>
+      </c>
+      <c r="AD31" s="1">
         <v>58</v>
       </c>
-      <c r="AE31" s="5">
+      <c r="AE31" s="1">
         <v>66</v>
       </c>
-      <c r="AF31" s="5">
-        <v>51</v>
-      </c>
-      <c r="AG31" s="5">
+      <c r="AF31" s="1">
+        <v>51</v>
+      </c>
+      <c r="AG31" s="1">
         <v>58</v>
       </c>
-      <c r="AH31" s="5">
-        <v>43</v>
-      </c>
-      <c r="AI31" s="5">
-        <v>50</v>
-      </c>
-      <c r="AJ31" s="5">
+      <c r="AH31" s="1">
+        <v>43</v>
+      </c>
+      <c r="AI31" s="1">
+        <v>50</v>
+      </c>
+      <c r="AJ31" s="1">
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:36" ht="15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:36" ht="15" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>43</v>
       </c>
@@ -3898,62 +3892,62 @@
       <c r="R32" s="1">
         <v>51</v>
       </c>
-      <c r="S32" s="5">
-        <v>52</v>
-      </c>
-      <c r="T32" s="5">
+      <c r="S32" s="1">
+        <v>52</v>
+      </c>
+      <c r="T32" s="1">
         <v>66</v>
       </c>
-      <c r="U32" s="5">
+      <c r="U32" s="1">
         <v>60</v>
       </c>
-      <c r="V32" s="5">
+      <c r="V32" s="1">
         <v>57</v>
       </c>
-      <c r="W32" s="5">
-        <v>46</v>
-      </c>
-      <c r="X32" s="5">
-        <v>40</v>
-      </c>
-      <c r="Y32" s="5">
-        <v>40</v>
-      </c>
-      <c r="Z32" s="5">
-        <v>55</v>
-      </c>
-      <c r="AA32" s="5">
+      <c r="W32" s="1">
+        <v>46</v>
+      </c>
+      <c r="X32" s="1">
+        <v>40</v>
+      </c>
+      <c r="Y32" s="1">
+        <v>40</v>
+      </c>
+      <c r="Z32" s="1">
+        <v>55</v>
+      </c>
+      <c r="AA32" s="1">
         <v>58</v>
       </c>
-      <c r="AB32" s="5">
-        <v>50</v>
-      </c>
-      <c r="AC32" s="5">
-        <v>43</v>
-      </c>
-      <c r="AD32" s="5">
-        <v>46</v>
-      </c>
-      <c r="AE32" s="5">
-        <v>40</v>
-      </c>
-      <c r="AF32" s="5">
-        <v>47</v>
-      </c>
-      <c r="AG32" s="5">
-        <v>55</v>
-      </c>
-      <c r="AH32" s="5">
+      <c r="AB32" s="1">
+        <v>50</v>
+      </c>
+      <c r="AC32" s="1">
+        <v>43</v>
+      </c>
+      <c r="AD32" s="1">
+        <v>46</v>
+      </c>
+      <c r="AE32" s="1">
+        <v>40</v>
+      </c>
+      <c r="AF32" s="1">
+        <v>47</v>
+      </c>
+      <c r="AG32" s="1">
+        <v>55</v>
+      </c>
+      <c r="AH32" s="1">
         <v>58</v>
       </c>
-      <c r="AI32" s="5">
-        <v>52</v>
-      </c>
-      <c r="AJ32" s="5">
+      <c r="AI32" s="1">
+        <v>52</v>
+      </c>
+      <c r="AJ32" s="1">
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:36" ht="15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:36" ht="15" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>43</v>
       </c>
@@ -4008,62 +4002,62 @@
       <c r="R33" s="1">
         <v>51</v>
       </c>
-      <c r="S33" s="5">
+      <c r="S33" s="1">
         <v>36</v>
       </c>
-      <c r="T33" s="5">
-        <v>40</v>
-      </c>
-      <c r="U33" s="5">
+      <c r="T33" s="1">
+        <v>40</v>
+      </c>
+      <c r="U33" s="1">
         <v>61</v>
       </c>
-      <c r="V33" s="5">
-        <v>50</v>
-      </c>
-      <c r="W33" s="5">
-        <v>40</v>
-      </c>
-      <c r="X33" s="5">
-        <v>42</v>
-      </c>
-      <c r="Y33" s="5">
-        <v>41</v>
-      </c>
-      <c r="Z33" s="5">
+      <c r="V33" s="1">
+        <v>50</v>
+      </c>
+      <c r="W33" s="1">
+        <v>40</v>
+      </c>
+      <c r="X33" s="1">
+        <v>42</v>
+      </c>
+      <c r="Y33" s="1">
+        <v>41</v>
+      </c>
+      <c r="Z33" s="1">
         <v>44</v>
       </c>
-      <c r="AA33" s="5">
+      <c r="AA33" s="1">
         <v>53</v>
       </c>
-      <c r="AB33" s="5">
+      <c r="AB33" s="1">
         <v>53</v>
       </c>
-      <c r="AC33" s="5">
-        <v>43</v>
-      </c>
-      <c r="AD33" s="5">
+      <c r="AC33" s="1">
+        <v>43</v>
+      </c>
+      <c r="AD33" s="1">
         <v>31</v>
       </c>
-      <c r="AE33" s="5">
-        <v>40</v>
-      </c>
-      <c r="AF33" s="5">
+      <c r="AE33" s="1">
+        <v>40</v>
+      </c>
+      <c r="AF33" s="1">
         <v>37</v>
       </c>
-      <c r="AG33" s="5">
+      <c r="AG33" s="1">
         <v>31</v>
       </c>
-      <c r="AH33" s="5">
+      <c r="AH33" s="1">
         <v>44</v>
       </c>
-      <c r="AI33" s="5">
+      <c r="AI33" s="1">
         <v>44</v>
       </c>
-      <c r="AJ33" s="5">
+      <c r="AJ33" s="1">
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:36" ht="15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:36" ht="15" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>50</v>
       </c>
@@ -4118,62 +4112,62 @@
       <c r="R34" s="1">
         <v>40</v>
       </c>
-      <c r="S34" s="5">
-        <v>45</v>
-      </c>
-      <c r="T34" s="5">
+      <c r="S34" s="1">
+        <v>45</v>
+      </c>
+      <c r="T34" s="1">
         <v>58</v>
       </c>
-      <c r="U34" s="5">
+      <c r="U34" s="1">
         <v>61</v>
       </c>
-      <c r="V34" s="5">
+      <c r="V34" s="1">
         <v>54</v>
       </c>
-      <c r="W34" s="5">
-        <v>50</v>
-      </c>
-      <c r="X34" s="5">
-        <v>52</v>
-      </c>
-      <c r="Y34" s="5">
+      <c r="W34" s="1">
+        <v>50</v>
+      </c>
+      <c r="X34" s="1">
+        <v>52</v>
+      </c>
+      <c r="Y34" s="1">
         <v>54</v>
       </c>
-      <c r="Z34" s="5">
-        <v>47</v>
-      </c>
-      <c r="AA34" s="5">
-        <v>47</v>
-      </c>
-      <c r="AB34" s="5">
-        <v>43</v>
-      </c>
-      <c r="AC34" s="5">
+      <c r="Z34" s="1">
+        <v>47</v>
+      </c>
+      <c r="AA34" s="1">
+        <v>47</v>
+      </c>
+      <c r="AB34" s="1">
+        <v>43</v>
+      </c>
+      <c r="AC34" s="1">
         <v>49</v>
       </c>
-      <c r="AD34" s="5">
-        <v>55</v>
-      </c>
-      <c r="AE34" s="5">
-        <v>43</v>
-      </c>
-      <c r="AF34" s="5">
-        <v>46</v>
-      </c>
-      <c r="AG34" s="5">
-        <v>45</v>
-      </c>
-      <c r="AH34" s="5">
+      <c r="AD34" s="1">
+        <v>55</v>
+      </c>
+      <c r="AE34" s="1">
+        <v>43</v>
+      </c>
+      <c r="AF34" s="1">
+        <v>46</v>
+      </c>
+      <c r="AG34" s="1">
+        <v>45</v>
+      </c>
+      <c r="AH34" s="1">
         <v>57</v>
       </c>
-      <c r="AI34" s="5">
-        <v>41</v>
-      </c>
-      <c r="AJ34" s="5">
+      <c r="AI34" s="1">
+        <v>41</v>
+      </c>
+      <c r="AJ34" s="1">
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:36" ht="15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:36" ht="15" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>42</v>
       </c>
@@ -4228,62 +4222,62 @@
       <c r="R35" s="1">
         <v>45</v>
       </c>
-      <c r="S35" s="5">
-        <v>45</v>
-      </c>
-      <c r="T35" s="5">
+      <c r="S35" s="1">
+        <v>45</v>
+      </c>
+      <c r="T35" s="1">
         <v>54</v>
       </c>
-      <c r="U35" s="5">
-        <v>55</v>
-      </c>
-      <c r="V35" s="5">
-        <v>52</v>
-      </c>
-      <c r="W35" s="5">
-        <v>42</v>
-      </c>
-      <c r="X35" s="5">
+      <c r="U35" s="1">
+        <v>55</v>
+      </c>
+      <c r="V35" s="1">
+        <v>52</v>
+      </c>
+      <c r="W35" s="1">
+        <v>42</v>
+      </c>
+      <c r="X35" s="1">
         <v>44</v>
       </c>
-      <c r="Y35" s="5">
+      <c r="Y35" s="1">
         <v>23</v>
       </c>
-      <c r="Z35" s="5">
-        <v>40</v>
-      </c>
-      <c r="AA35" s="5">
-        <v>40</v>
-      </c>
-      <c r="AB35" s="5">
-        <v>43</v>
-      </c>
-      <c r="AC35" s="5">
+      <c r="Z35" s="1">
+        <v>40</v>
+      </c>
+      <c r="AA35" s="1">
+        <v>40</v>
+      </c>
+      <c r="AB35" s="1">
+        <v>43</v>
+      </c>
+      <c r="AC35" s="1">
         <v>53</v>
       </c>
-      <c r="AD35" s="5">
-        <v>40</v>
-      </c>
-      <c r="AE35" s="5">
-        <v>42</v>
-      </c>
-      <c r="AF35" s="5">
-        <v>40</v>
-      </c>
-      <c r="AG35" s="5">
-        <v>43</v>
-      </c>
-      <c r="AH35" s="5">
-        <v>42</v>
-      </c>
-      <c r="AI35" s="5">
-        <v>43</v>
-      </c>
-      <c r="AJ35" s="5">
+      <c r="AD35" s="1">
+        <v>40</v>
+      </c>
+      <c r="AE35" s="1">
+        <v>42</v>
+      </c>
+      <c r="AF35" s="1">
+        <v>40</v>
+      </c>
+      <c r="AG35" s="1">
+        <v>43</v>
+      </c>
+      <c r="AH35" s="1">
+        <v>42</v>
+      </c>
+      <c r="AI35" s="1">
+        <v>43</v>
+      </c>
+      <c r="AJ35" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:36" ht="15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:36" ht="15" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>68</v>
       </c>
@@ -4338,62 +4332,62 @@
       <c r="R36" s="1">
         <v>40</v>
       </c>
-      <c r="S36" s="5">
+      <c r="S36" s="1">
         <v>65</v>
       </c>
-      <c r="T36" s="5">
-        <v>45</v>
-      </c>
-      <c r="U36" s="5">
+      <c r="T36" s="1">
+        <v>45</v>
+      </c>
+      <c r="U36" s="1">
         <v>62</v>
       </c>
-      <c r="V36" s="5">
-        <v>45</v>
-      </c>
-      <c r="W36" s="5">
-        <v>52</v>
-      </c>
-      <c r="X36" s="5">
-        <v>55</v>
-      </c>
-      <c r="Y36" s="5">
+      <c r="V36" s="1">
+        <v>45</v>
+      </c>
+      <c r="W36" s="1">
+        <v>52</v>
+      </c>
+      <c r="X36" s="1">
+        <v>55</v>
+      </c>
+      <c r="Y36" s="1">
         <v>57</v>
       </c>
-      <c r="Z36" s="5">
-        <v>55</v>
-      </c>
-      <c r="AA36" s="5">
+      <c r="Z36" s="1">
+        <v>55</v>
+      </c>
+      <c r="AA36" s="1">
         <v>61</v>
       </c>
-      <c r="AB36" s="5">
+      <c r="AB36" s="1">
         <v>66</v>
       </c>
-      <c r="AC36" s="5">
-        <v>50</v>
-      </c>
-      <c r="AD36" s="5">
+      <c r="AC36" s="1">
+        <v>50</v>
+      </c>
+      <c r="AD36" s="1">
         <v>56</v>
       </c>
-      <c r="AE36" s="5">
-        <v>55</v>
-      </c>
-      <c r="AF36" s="5">
+      <c r="AE36" s="1">
+        <v>55</v>
+      </c>
+      <c r="AF36" s="1">
         <v>56</v>
       </c>
-      <c r="AG36" s="5">
+      <c r="AG36" s="1">
         <v>54</v>
       </c>
-      <c r="AH36" s="5">
+      <c r="AH36" s="1">
         <v>54</v>
       </c>
-      <c r="AI36" s="5">
-        <v>50</v>
-      </c>
-      <c r="AJ36" s="5">
+      <c r="AI36" s="1">
+        <v>50</v>
+      </c>
+      <c r="AJ36" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:36" ht="15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:36" ht="15" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>50</v>
       </c>
@@ -4448,62 +4442,62 @@
       <c r="R37" s="1">
         <v>77</v>
       </c>
-      <c r="S37" s="5">
+      <c r="S37" s="1">
         <v>53</v>
       </c>
-      <c r="T37" s="5">
+      <c r="T37" s="1">
         <v>44</v>
       </c>
-      <c r="U37" s="5">
+      <c r="U37" s="1">
         <v>49</v>
       </c>
-      <c r="V37" s="5">
-        <v>46</v>
-      </c>
-      <c r="W37" s="5">
+      <c r="V37" s="1">
+        <v>46</v>
+      </c>
+      <c r="W37" s="1">
         <v>60</v>
       </c>
-      <c r="X37" s="5">
-        <v>47</v>
-      </c>
-      <c r="Y37" s="5">
-        <v>50</v>
-      </c>
-      <c r="Z37" s="5">
-        <v>48</v>
-      </c>
-      <c r="AA37" s="5">
-        <v>40</v>
-      </c>
-      <c r="AB37" s="5">
-        <v>51</v>
-      </c>
-      <c r="AC37" s="5">
-        <v>50</v>
-      </c>
-      <c r="AD37" s="5">
-        <v>42</v>
-      </c>
-      <c r="AE37" s="5">
-        <v>46</v>
-      </c>
-      <c r="AF37" s="5">
-        <v>45</v>
-      </c>
-      <c r="AG37" s="5">
-        <v>50</v>
-      </c>
-      <c r="AH37" s="5">
-        <v>51</v>
-      </c>
-      <c r="AI37" s="5">
-        <v>40</v>
-      </c>
-      <c r="AJ37" s="5">
+      <c r="X37" s="1">
+        <v>47</v>
+      </c>
+      <c r="Y37" s="1">
+        <v>50</v>
+      </c>
+      <c r="Z37" s="1">
+        <v>48</v>
+      </c>
+      <c r="AA37" s="1">
+        <v>40</v>
+      </c>
+      <c r="AB37" s="1">
+        <v>51</v>
+      </c>
+      <c r="AC37" s="1">
+        <v>50</v>
+      </c>
+      <c r="AD37" s="1">
+        <v>42</v>
+      </c>
+      <c r="AE37" s="1">
+        <v>46</v>
+      </c>
+      <c r="AF37" s="1">
+        <v>45</v>
+      </c>
+      <c r="AG37" s="1">
+        <v>50</v>
+      </c>
+      <c r="AH37" s="1">
+        <v>51</v>
+      </c>
+      <c r="AI37" s="1">
+        <v>40</v>
+      </c>
+      <c r="AJ37" s="1">
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:36" ht="15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:36" ht="15" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>60</v>
       </c>
@@ -4558,62 +4552,62 @@
       <c r="R38" s="1">
         <v>58</v>
       </c>
-      <c r="S38" s="5">
-        <v>46</v>
-      </c>
-      <c r="T38" s="5">
-        <v>48</v>
-      </c>
-      <c r="U38" s="5">
+      <c r="S38" s="1">
+        <v>46</v>
+      </c>
+      <c r="T38" s="1">
+        <v>48</v>
+      </c>
+      <c r="U38" s="1">
         <v>44</v>
       </c>
-      <c r="V38" s="5">
-        <v>41</v>
-      </c>
-      <c r="W38" s="5">
+      <c r="V38" s="1">
+        <v>41</v>
+      </c>
+      <c r="W38" s="1">
         <v>44</v>
       </c>
-      <c r="X38" s="5">
-        <v>48</v>
-      </c>
-      <c r="Y38" s="5">
+      <c r="X38" s="1">
+        <v>48</v>
+      </c>
+      <c r="Y38" s="1">
         <v>56</v>
       </c>
-      <c r="Z38" s="5">
-        <v>40</v>
-      </c>
-      <c r="AA38" s="5">
+      <c r="Z38" s="1">
+        <v>40</v>
+      </c>
+      <c r="AA38" s="1">
         <v>44</v>
       </c>
-      <c r="AB38" s="5">
-        <v>40</v>
-      </c>
-      <c r="AC38" s="5">
-        <v>47</v>
-      </c>
-      <c r="AD38" s="5">
+      <c r="AB38" s="1">
+        <v>40</v>
+      </c>
+      <c r="AC38" s="1">
+        <v>47</v>
+      </c>
+      <c r="AD38" s="1">
         <v>66</v>
       </c>
-      <c r="AE38" s="5">
-        <v>40</v>
-      </c>
-      <c r="AF38" s="5">
+      <c r="AE38" s="1">
+        <v>40</v>
+      </c>
+      <c r="AF38" s="1">
         <v>58</v>
       </c>
-      <c r="AG38" s="5">
-        <v>52</v>
-      </c>
-      <c r="AH38" s="5">
-        <v>40</v>
-      </c>
-      <c r="AI38" s="5">
-        <v>48</v>
-      </c>
-      <c r="AJ38" s="5">
+      <c r="AG38" s="1">
+        <v>52</v>
+      </c>
+      <c r="AH38" s="1">
+        <v>40</v>
+      </c>
+      <c r="AI38" s="1">
+        <v>48</v>
+      </c>
+      <c r="AJ38" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:36" ht="15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:36" ht="15" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>49</v>
       </c>
@@ -4668,62 +4662,62 @@
       <c r="R39" s="1">
         <v>65</v>
       </c>
-      <c r="S39" s="5">
-        <v>47</v>
-      </c>
-      <c r="T39" s="5">
-        <v>47</v>
-      </c>
-      <c r="U39" s="5">
-        <v>40</v>
-      </c>
-      <c r="V39" s="5">
-        <v>40</v>
-      </c>
-      <c r="W39" s="5">
-        <v>42</v>
-      </c>
-      <c r="X39" s="5">
-        <v>40</v>
-      </c>
-      <c r="Y39" s="5">
+      <c r="S39" s="1">
+        <v>47</v>
+      </c>
+      <c r="T39" s="1">
+        <v>47</v>
+      </c>
+      <c r="U39" s="1">
+        <v>40</v>
+      </c>
+      <c r="V39" s="1">
+        <v>40</v>
+      </c>
+      <c r="W39" s="1">
+        <v>42</v>
+      </c>
+      <c r="X39" s="1">
+        <v>40</v>
+      </c>
+      <c r="Y39" s="1">
         <v>49</v>
       </c>
-      <c r="Z39" s="5">
-        <v>40</v>
-      </c>
-      <c r="AA39" s="5">
-        <v>41</v>
-      </c>
-      <c r="AB39" s="5">
-        <v>52</v>
-      </c>
-      <c r="AC39" s="5">
-        <v>48</v>
-      </c>
-      <c r="AD39" s="5">
-        <v>40</v>
-      </c>
-      <c r="AE39" s="5">
-        <v>45</v>
-      </c>
-      <c r="AF39" s="5">
+      <c r="Z39" s="1">
+        <v>40</v>
+      </c>
+      <c r="AA39" s="1">
+        <v>41</v>
+      </c>
+      <c r="AB39" s="1">
+        <v>52</v>
+      </c>
+      <c r="AC39" s="1">
+        <v>48</v>
+      </c>
+      <c r="AD39" s="1">
+        <v>40</v>
+      </c>
+      <c r="AE39" s="1">
+        <v>45</v>
+      </c>
+      <c r="AF39" s="1">
         <v>44</v>
       </c>
-      <c r="AG39" s="5">
-        <v>55</v>
-      </c>
-      <c r="AH39" s="5">
-        <v>41</v>
-      </c>
-      <c r="AI39" s="5">
-        <v>45</v>
-      </c>
-      <c r="AJ39" s="5">
+      <c r="AG39" s="1">
+        <v>55</v>
+      </c>
+      <c r="AH39" s="1">
+        <v>41</v>
+      </c>
+      <c r="AI39" s="1">
+        <v>45</v>
+      </c>
+      <c r="AJ39" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:36" ht="15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:36" ht="15" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>50</v>
       </c>
@@ -4778,62 +4772,62 @@
       <c r="R40" s="1">
         <v>50</v>
       </c>
-      <c r="S40" s="5">
-        <v>50</v>
-      </c>
-      <c r="T40" s="5">
-        <v>42</v>
-      </c>
-      <c r="U40" s="5">
+      <c r="S40" s="1">
+        <v>50</v>
+      </c>
+      <c r="T40" s="1">
+        <v>42</v>
+      </c>
+      <c r="U40" s="1">
         <v>34</v>
       </c>
-      <c r="V40" s="5">
-        <v>46</v>
-      </c>
-      <c r="W40" s="5">
-        <v>40</v>
-      </c>
-      <c r="X40" s="5">
-        <v>48</v>
-      </c>
-      <c r="Y40" s="5">
+      <c r="V40" s="1">
+        <v>46</v>
+      </c>
+      <c r="W40" s="1">
+        <v>40</v>
+      </c>
+      <c r="X40" s="1">
+        <v>48</v>
+      </c>
+      <c r="Y40" s="1">
         <v>36</v>
       </c>
-      <c r="Z40" s="5">
+      <c r="Z40" s="1">
         <v>37</v>
       </c>
-      <c r="AA40" s="5">
+      <c r="AA40" s="1">
         <v>28</v>
       </c>
-      <c r="AB40" s="5">
-        <v>46</v>
-      </c>
-      <c r="AC40" s="5">
-        <v>45</v>
-      </c>
-      <c r="AD40" s="5">
-        <v>42</v>
-      </c>
-      <c r="AE40" s="5">
-        <v>52</v>
-      </c>
-      <c r="AF40" s="5">
-        <v>45</v>
-      </c>
-      <c r="AG40" s="5">
+      <c r="AB40" s="1">
+        <v>46</v>
+      </c>
+      <c r="AC40" s="1">
+        <v>45</v>
+      </c>
+      <c r="AD40" s="1">
+        <v>42</v>
+      </c>
+      <c r="AE40" s="1">
+        <v>52</v>
+      </c>
+      <c r="AF40" s="1">
+        <v>45</v>
+      </c>
+      <c r="AG40" s="1">
         <v>25</v>
       </c>
-      <c r="AH40" s="5">
-        <v>48</v>
-      </c>
-      <c r="AI40" s="5">
-        <v>42</v>
-      </c>
-      <c r="AJ40" s="5">
+      <c r="AH40" s="1">
+        <v>48</v>
+      </c>
+      <c r="AI40" s="1">
+        <v>42</v>
+      </c>
+      <c r="AJ40" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:36" ht="15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:36" ht="15" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>50</v>
       </c>
@@ -4888,62 +4882,62 @@
       <c r="R41" s="1">
         <v>60</v>
       </c>
-      <c r="S41" s="5">
+      <c r="S41" s="1">
         <v>60</v>
       </c>
-      <c r="T41" s="5">
+      <c r="T41" s="1">
         <v>67</v>
       </c>
-      <c r="U41" s="5">
-        <v>45</v>
-      </c>
-      <c r="V41" s="5">
-        <v>50</v>
-      </c>
-      <c r="W41" s="5">
-        <v>55</v>
-      </c>
-      <c r="X41" s="5">
-        <v>50</v>
-      </c>
-      <c r="Y41" s="5">
-        <v>48</v>
-      </c>
-      <c r="Z41" s="5">
-        <v>40</v>
-      </c>
-      <c r="AA41" s="5">
+      <c r="U41" s="1">
+        <v>45</v>
+      </c>
+      <c r="V41" s="1">
+        <v>50</v>
+      </c>
+      <c r="W41" s="1">
+        <v>55</v>
+      </c>
+      <c r="X41" s="1">
+        <v>50</v>
+      </c>
+      <c r="Y41" s="1">
+        <v>48</v>
+      </c>
+      <c r="Z41" s="1">
+        <v>40</v>
+      </c>
+      <c r="AA41" s="1">
         <v>56</v>
       </c>
-      <c r="AB41" s="5">
+      <c r="AB41" s="1">
         <v>28</v>
       </c>
-      <c r="AC41" s="5">
-        <v>46</v>
-      </c>
-      <c r="AD41" s="5">
+      <c r="AC41" s="1">
+        <v>46</v>
+      </c>
+      <c r="AD41" s="1">
         <v>30</v>
       </c>
-      <c r="AE41" s="5">
-        <v>40</v>
-      </c>
-      <c r="AF41" s="5">
-        <v>45</v>
-      </c>
-      <c r="AG41" s="5">
-        <v>45</v>
-      </c>
-      <c r="AH41" s="5">
-        <v>55</v>
-      </c>
-      <c r="AI41" s="5">
-        <v>45</v>
-      </c>
-      <c r="AJ41" s="5">
+      <c r="AE41" s="1">
+        <v>40</v>
+      </c>
+      <c r="AF41" s="1">
+        <v>45</v>
+      </c>
+      <c r="AG41" s="1">
+        <v>45</v>
+      </c>
+      <c r="AH41" s="1">
+        <v>55</v>
+      </c>
+      <c r="AI41" s="1">
+        <v>45</v>
+      </c>
+      <c r="AJ41" s="1">
         <v>68</v>
       </c>
     </row>
-    <row r="42" spans="1:36" ht="15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:36" ht="15" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -4998,58 +4992,58 @@
       <c r="R42" s="1">
         <v>51</v>
       </c>
-      <c r="S42" s="5">
-        <v>55</v>
-      </c>
-      <c r="T42" s="5">
-        <v>55</v>
-      </c>
-      <c r="U42" s="5">
-        <v>40</v>
-      </c>
-      <c r="V42" s="5">
-        <v>40</v>
-      </c>
-      <c r="W42" s="5">
-        <v>50</v>
-      </c>
-      <c r="X42" s="5">
-        <v>40</v>
-      </c>
-      <c r="Y42" s="5">
+      <c r="S42" s="1">
+        <v>55</v>
+      </c>
+      <c r="T42" s="1">
+        <v>55</v>
+      </c>
+      <c r="U42" s="1">
+        <v>40</v>
+      </c>
+      <c r="V42" s="1">
+        <v>40</v>
+      </c>
+      <c r="W42" s="1">
+        <v>50</v>
+      </c>
+      <c r="X42" s="1">
+        <v>40</v>
+      </c>
+      <c r="Y42" s="1">
         <v>62</v>
       </c>
-      <c r="Z42" s="5">
-        <v>41</v>
-      </c>
-      <c r="AA42" s="5">
-        <v>40</v>
-      </c>
-      <c r="AB42" s="5">
+      <c r="Z42" s="1">
+        <v>41</v>
+      </c>
+      <c r="AA42" s="1">
+        <v>40</v>
+      </c>
+      <c r="AB42" s="1">
         <v>35</v>
       </c>
-      <c r="AC42" s="5">
-        <v>40</v>
-      </c>
-      <c r="AD42" s="5">
-        <v>40</v>
-      </c>
-      <c r="AE42" s="5">
-        <v>40</v>
-      </c>
-      <c r="AF42" s="5">
-        <v>47</v>
-      </c>
-      <c r="AG42" s="5">
-        <v>40</v>
-      </c>
-      <c r="AH42" s="5">
+      <c r="AC42" s="1">
+        <v>40</v>
+      </c>
+      <c r="AD42" s="1">
+        <v>40</v>
+      </c>
+      <c r="AE42" s="1">
+        <v>40</v>
+      </c>
+      <c r="AF42" s="1">
+        <v>47</v>
+      </c>
+      <c r="AG42" s="1">
+        <v>40</v>
+      </c>
+      <c r="AH42" s="1">
         <v>56</v>
       </c>
-      <c r="AI42" s="5">
+      <c r="AI42" s="1">
         <v>44</v>
       </c>
-      <c r="AJ42" s="5">
+      <c r="AJ42" s="1">
         <v>40</v>
       </c>
     </row>
